--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H200_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4924471299093656</v>
+        <v>0.4894259818731118</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.2718440579900261</v>
+        <v>0.2494518768760903</v>
       </c>
       <c r="J2" t="n">
-        <v>3660.022494988004</v>
+        <v>3299.645716408548</v>
       </c>
       <c r="K2" t="n">
-        <v>18508300.70560519</v>
+        <v>13890574.24091412</v>
       </c>
       <c r="L2" t="n">
-        <v>4302.127462733431</v>
+        <v>3727.00606934227</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.460004868514996</v>
+        <v>-1.596751331443224</v>
       </c>
     </row>
   </sheetData>
